--- a/02_data/to_extract/studiesleft.xlsx
+++ b/02_data/to_extract/studiesleft.xlsx
@@ -1,21 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\to_extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C98480-C1EA-40A0-ACE0-F361A7774754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+  <si>
+    <t>studycode</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>studydesign</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>Exclusion_coded</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Exclusion1</t>
+  </si>
+  <si>
+    <t>albertella_2018</t>
+  </si>
+  <si>
+    <t>Environmental Moderators</t>
+  </si>
+  <si>
+    <t>prospective cohort</t>
+  </si>
+  <si>
+    <t>Polkosnik(2021)</t>
+  </si>
+  <si>
+    <t>any psychosis outcome</t>
+  </si>
+  <si>
+    <t>not extracted</t>
+  </si>
+  <si>
+    <t>ariashorcajadas_2002</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>longitudinal</t>
+  </si>
+  <si>
+    <t>Zammit (2008)</t>
+  </si>
+  <si>
+    <t>positive symptoms</t>
+  </si>
+  <si>
+    <t>bechtold_2015</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>Hosseini(2019)</t>
+  </si>
+  <si>
+    <t>degenhardt_2007</t>
+  </si>
+  <si>
+    <t>dragt_2011</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>van der Meer (2012)</t>
+  </si>
+  <si>
+    <t>transition to psychosis</t>
+  </si>
+  <si>
+    <t>henquet_2004</t>
+  </si>
+  <si>
+    <t>lavoie_2014</t>
+  </si>
+  <si>
+    <t>Oliver(2020)</t>
+  </si>
+  <si>
+    <t>marwaha_2018</t>
+  </si>
+  <si>
+    <t>Godin(2022)</t>
+  </si>
+  <si>
+    <t>seddon_2016</t>
+  </si>
+  <si>
+    <t>Athanassiou (2021)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +175,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,370 +476,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>studycode</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>studydesign</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Exclusion_coded</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Exclusion1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>albertella_2018</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>prospective cohort</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Polkosnik(2021)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ariashorcajadas_2002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>symptoms</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Zammit (2008)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>positive symptoms</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
       <c r="H3">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bechtold_2015</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hosseini(2019)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
       <c r="H4">
         <v>93</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>degenhardt_2007</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>symptoms</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Zammit (2008)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>positive symptoms</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
       <c r="H5">
         <v>195</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>dragt_2011</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>van der Meer (2012)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>transition to psychosis</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
       <c r="H6">
         <v>233</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>henquet_2004</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Hosseini(2019)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7">
         <v>357</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lavoie_2014</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Oliver(2020)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>transition to psychosis</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
       </c>
       <c r="H8">
         <v>432</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>marwaha_2018</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Godin(2022)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
       </c>
       <c r="H9">
         <v>482</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>seddon_2016</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
       </c>
       <c r="H10">
         <v>649</v>
